--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T20:26:05+00:00</t>
+    <t>2023-01-30T20:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T20:52:57+00:00</t>
+    <t>2023-02-02T13:13:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6456" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6456" uniqueCount="718">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:13:30+00:00</t>
+    <t>2023-02-02T17:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,6 +462,32 @@
     <t>The date range that this organization should be considered available.</t>
   </si>
   <si>
+    <t>Organization.extension:ror-organization-price</t>
+  </si>
+  <si>
+    <t>ror-organization-price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-price}
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR</t>
+  </si>
+  <si>
+    <t>Organization.extension:ror-drop-zone</t>
+  </si>
+  <si>
+    <t>ror-drop-zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-drop-zone}
+</t>
+  </si>
+  <si>
     <t>Organization.extension:mailboxMSS</t>
   </si>
   <si>
@@ -482,12 +508,6 @@
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR</t>
-  </si>
-  <si>
     <t>Organization.extension:ror-organization-financial-help-type</t>
   </si>
   <si>
@@ -581,26 +601,6 @@
 </t>
   </si>
   <si>
-    <t>Organization.extension:ror-organization-price</t>
-  </si>
-  <si>
-    <t>ror-organization-price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-price}
-</t>
-  </si>
-  <si>
-    <t>Organization.extension:ror-drop-zone</t>
-  </si>
-  <si>
-    <t>ror-drop-zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-drop-zone}
-</t>
-  </si>
-  <si>
     <t>Organization.modifierExtension</t>
   </si>
   <si>
@@ -830,13 +830,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R254-TypeEvenement/FHIR/TRE-R254-TypeEvenement/TRE_R254-TypeEvenement-FHIR.json"/&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R254-TypeEvenement/FHIR/TRE-R254-TypeEvenement/TRE-R254-TypeEvenement-FHIR.json"/&gt;
     &lt;code value="40"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV_J236-TypeIdentifiant-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR</t>
   </si>
   <si>
     <t>Organization.identifier:idNatStruct.system</t>
@@ -871,7 +871,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV_J236-TypeIdentifiant-ROR/"/&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
     &lt;code value="1"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -909,7 +909,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV_J236-TypeIdentifiant-ROR/"/&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
+    &lt;code value="2"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -944,99 +945,123 @@
     <t>Organization.identifier:numRPPS.type</t>
   </si>
   <si>
-    <t>Organization.identifier:numRPPS.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numRPPS.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numRPPS.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numRPPS.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET</t>
-  </si>
-  <si>
-    <t>numSIRET</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numSIRET.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI</t>
-  </si>
-  <si>
-    <t>identifiantOI</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:identifiantOI.assigner</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numADELI</t>
-  </si>
-  <si>
-    <t>numADELI</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numADELI.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numADELI.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numADELI.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:numADELI.type</t>
-  </si>
-  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV_J236-TypeIdentifiant-ROR/"/&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
+    &lt;code value="4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numRPPS.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numRPPS.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numRPPS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numRPPS.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET</t>
+  </si>
+  <si>
+    <t>numSIRET</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
+    &lt;code value="3"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numSIRET.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI</t>
+  </si>
+  <si>
+    <t>identifiantOI</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
+    &lt;code value="42"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:identifiantOI.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numADELI</t>
+  </si>
+  <si>
+    <t>numADELI</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numADELI.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numADELI.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numADELI.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:numADELI.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
     &lt;code value="0"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1414,7 +1439,7 @@
     <t>Binding JDV_J55-CategorieEG-ROR</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV_J55-CategorieEG-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
   </si>
   <si>
     <t>Organization.type:sphParticipation</t>
@@ -3859,7 +3884,7 @@
         <v>71</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>70</v>
@@ -3874,10 +3899,10 @@
         <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3945,13 +3970,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>70</v>
@@ -3961,7 +3986,7 @@
         <v>71</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>70</v>
@@ -3973,13 +3998,13 @@
         <v>70</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4078,10 +4103,10 @@
         <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4180,10 +4205,10 @@
         <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4282,10 +4307,10 @@
         <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4384,10 +4409,10 @@
         <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4486,10 +4511,10 @@
         <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4588,10 +4613,10 @@
         <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4690,10 +4715,10 @@
         <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4792,10 +4817,10 @@
         <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4863,13 +4888,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>70</v>
@@ -4891,13 +4916,13 @@
         <v>70</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4965,13 +4990,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>70</v>
@@ -4981,7 +5006,7 @@
         <v>71</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>70</v>
@@ -4993,13 +5018,13 @@
         <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5083,7 +5108,7 @@
         <v>71</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>70</v>
@@ -5098,10 +5123,10 @@
         <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -9414,7 +9439,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>70</v>
@@ -9471,7 +9496,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>224</v>
@@ -9575,7 +9600,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>231</v>
@@ -9677,7 +9702,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>237</v>
@@ -9779,7 +9804,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>244</v>
@@ -9881,13 +9906,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>190</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>70</v>
@@ -9985,7 +10010,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>197</v>
@@ -10085,7 +10110,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>202</v>
@@ -10187,7 +10212,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>205</v>
@@ -10291,7 +10316,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>214</v>
@@ -10336,7 +10361,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>70</v>
@@ -10393,7 +10418,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>224</v>
@@ -10497,7 +10522,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>231</v>
@@ -10599,7 +10624,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>237</v>
@@ -10701,7 +10726,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>244</v>
@@ -10803,13 +10828,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>190</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>70</v>
@@ -10907,7 +10932,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>197</v>
@@ -11007,7 +11032,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>202</v>
@@ -11109,7 +11134,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>205</v>
@@ -11213,7 +11238,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>214</v>
@@ -11258,7 +11283,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>70</v>
@@ -11315,7 +11340,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>224</v>
@@ -11419,7 +11444,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>231</v>
@@ -11521,7 +11546,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>237</v>
@@ -11623,7 +11648,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>244</v>
@@ -11725,13 +11750,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>190</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>70</v>
@@ -11829,7 +11854,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>197</v>
@@ -11929,7 +11954,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>202</v>
@@ -12031,7 +12056,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>205</v>
@@ -12135,7 +12160,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -12180,7 +12205,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>70</v>
@@ -12237,7 +12262,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>224</v>
@@ -12341,7 +12366,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>231</v>
@@ -12443,7 +12468,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>237</v>
@@ -12545,7 +12570,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>244</v>
@@ -12647,10 +12672,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12673,70 +12698,70 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF99" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q99" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>71</v>
@@ -12753,10 +12778,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12782,16 +12807,16 @@
         <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>70</v>
@@ -12816,19 +12841,19 @@
         <v>70</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AC100" s="2"/>
       <c r="AD100" t="s" s="2">
@@ -12838,7 +12863,7 @@
         <v>128</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>71</v>
@@ -12855,13 +12880,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>70</v>
@@ -12886,16 +12911,16 @@
         <v>215</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>70</v>
@@ -12923,10 +12948,10 @@
         <v>210</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>70</v>
@@ -12944,7 +12969,7 @@
         <v>70</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>71</v>
@@ -12961,10 +12986,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13061,10 +13086,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13163,10 +13188,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13189,19 +13214,19 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>70</v>
@@ -13250,7 +13275,7 @@
         <v>70</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>71</v>
@@ -13267,10 +13292,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13367,10 +13392,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13469,10 +13494,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13498,29 +13523,29 @@
         <v>92</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>70</v>
@@ -13556,7 +13581,7 @@
         <v>70</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>71</v>
@@ -13573,10 +13598,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13602,13 +13627,13 @@
         <v>198</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -13658,7 +13683,7 @@
         <v>70</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>71</v>
@@ -13675,10 +13700,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13704,16 +13729,16 @@
         <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>70</v>
@@ -13762,7 +13787,7 @@
         <v>70</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>71</v>
@@ -13779,10 +13804,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13808,16 +13833,16 @@
         <v>198</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>70</v>
@@ -13866,7 +13891,7 @@
         <v>70</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>71</v>
@@ -13883,10 +13908,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13909,19 +13934,19 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>70</v>
@@ -13970,7 +13995,7 @@
         <v>70</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>71</v>
@@ -13987,10 +14012,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14016,16 +14041,16 @@
         <v>198</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>70</v>
@@ -14074,7 +14099,7 @@
         <v>70</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>71</v>
@@ -14091,13 +14116,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>70</v>
@@ -14122,16 +14147,16 @@
         <v>215</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>70</v>
@@ -14159,10 +14184,10 @@
         <v>210</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>70</v>
@@ -14180,7 +14205,7 @@
         <v>70</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>71</v>
@@ -14197,10 +14222,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14297,10 +14322,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14399,10 +14424,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14425,19 +14450,19 @@
         <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>70</v>
@@ -14486,7 +14511,7 @@
         <v>70</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>71</v>
@@ -14503,10 +14528,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14603,10 +14628,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14705,10 +14730,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14734,29 +14759,29 @@
         <v>92</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>70</v>
       </c>
       <c r="T119" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="U119" t="s" s="2">
         <v>70</v>
@@ -14792,7 +14817,7 @@
         <v>70</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>71</v>
@@ -14809,10 +14834,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14838,13 +14863,13 @@
         <v>198</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -14894,7 +14919,7 @@
         <v>70</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>71</v>
@@ -14911,10 +14936,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14940,16 +14965,16 @@
         <v>98</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>70</v>
@@ -14998,7 +15023,7 @@
         <v>70</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>71</v>
@@ -15015,10 +15040,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15044,16 +15069,16 @@
         <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>70</v>
@@ -15102,7 +15127,7 @@
         <v>70</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>71</v>
@@ -15119,10 +15144,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15145,19 +15170,19 @@
         <v>78</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>70</v>
@@ -15206,7 +15231,7 @@
         <v>70</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>71</v>
@@ -15223,10 +15248,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15252,16 +15277,16 @@
         <v>198</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>70</v>
@@ -15310,7 +15335,7 @@
         <v>70</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>71</v>
@@ -15327,13 +15352,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>70</v>
@@ -15358,16 +15383,16 @@
         <v>215</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>70</v>
@@ -15395,10 +15420,10 @@
         <v>210</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>70</v>
@@ -15416,7 +15441,7 @@
         <v>70</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>71</v>
@@ -15433,10 +15458,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15533,10 +15558,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15635,10 +15660,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15661,19 +15686,19 @@
         <v>78</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>70</v>
@@ -15722,7 +15747,7 @@
         <v>70</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>71</v>
@@ -15739,10 +15764,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15839,10 +15864,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15941,10 +15966,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15970,23 +15995,23 @@
         <v>92</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>70</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>70</v>
@@ -16028,7 +16053,7 @@
         <v>70</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>71</v>
@@ -16045,10 +16070,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16074,13 +16099,13 @@
         <v>198</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -16130,7 +16155,7 @@
         <v>70</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>71</v>
@@ -16147,10 +16172,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16176,16 +16201,16 @@
         <v>98</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>70</v>
@@ -16234,7 +16259,7 @@
         <v>70</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>71</v>
@@ -16251,10 +16276,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16280,16 +16305,16 @@
         <v>198</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>70</v>
@@ -16338,7 +16363,7 @@
         <v>70</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>71</v>
@@ -16355,10 +16380,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16381,19 +16406,19 @@
         <v>78</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>70</v>
@@ -16442,7 +16467,7 @@
         <v>70</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>71</v>
@@ -16459,10 +16484,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16488,16 +16513,16 @@
         <v>198</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>70</v>
@@ -16546,7 +16571,7 @@
         <v>70</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>71</v>
@@ -16563,13 +16588,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>70</v>
@@ -16594,16 +16619,16 @@
         <v>215</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>70</v>
@@ -16631,10 +16656,10 @@
         <v>210</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>70</v>
@@ -16652,7 +16677,7 @@
         <v>70</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>71</v>
@@ -16669,13 +16694,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>70</v>
@@ -16700,16 +16725,16 @@
         <v>215</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>70</v>
@@ -16737,10 +16762,10 @@
         <v>210</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>70</v>
@@ -16758,7 +16783,7 @@
         <v>70</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>71</v>
@@ -16775,13 +16800,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>70</v>
@@ -16806,16 +16831,16 @@
         <v>215</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>70</v>
@@ -16843,10 +16868,10 @@
         <v>210</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>70</v>
@@ -16864,7 +16889,7 @@
         <v>70</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>71</v>
@@ -16881,13 +16906,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>70</v>
@@ -16912,16 +16937,16 @@
         <v>215</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>70</v>
@@ -16950,7 +16975,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>70</v>
@@ -16968,7 +16993,7 @@
         <v>70</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>71</v>
@@ -16985,10 +17010,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17014,16 +17039,16 @@
         <v>198</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>70</v>
@@ -17072,7 +17097,7 @@
         <v>70</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>71</v>
@@ -17089,10 +17114,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17118,16 +17143,16 @@
         <v>198</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>70</v>
@@ -17176,7 +17201,7 @@
         <v>70</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>71</v>
@@ -17193,10 +17218,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17219,19 +17244,19 @@
         <v>70</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>70</v>
@@ -17280,7 +17305,7 @@
         <v>70</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>71</v>
@@ -17289,18 +17314,18 @@
         <v>72</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17323,19 +17348,19 @@
         <v>70</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>70</v>
@@ -17384,7 +17409,7 @@
         <v>70</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>71</v>
@@ -17393,18 +17418,18 @@
         <v>72</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17501,10 +17526,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17603,13 +17628,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>70</v>
@@ -17631,7 +17656,7 @@
         <v>70</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L147" t="s" s="2">
         <v>134</v>
@@ -17705,10 +17730,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17805,10 +17830,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17834,10 +17859,10 @@
         <v>122</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -17905,10 +17930,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17934,13 +17959,13 @@
         <v>92</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -17948,7 +17973,7 @@
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>70</v>
@@ -17990,7 +18015,7 @@
         <v>70</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>77</v>
@@ -18007,10 +18032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18033,13 +18058,13 @@
         <v>70</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18069,10 +18094,10 @@
         <v>210</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>70</v>
@@ -18090,7 +18115,7 @@
         <v>70</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>71</v>
@@ -18107,13 +18132,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>70</v>
@@ -18135,13 +18160,13 @@
         <v>70</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18209,13 +18234,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>70</v>
@@ -18237,13 +18262,13 @@
         <v>70</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -18311,13 +18336,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>70</v>
@@ -18339,13 +18364,13 @@
         <v>70</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -18413,13 +18438,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>70</v>
@@ -18441,16 +18466,16 @@
         <v>70</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -18517,13 +18542,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>70</v>
@@ -18545,13 +18570,13 @@
         <v>70</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -18619,10 +18644,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18648,16 +18673,16 @@
         <v>98</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>70</v>
@@ -18670,7 +18695,7 @@
         <v>70</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>70</v>
@@ -18685,10 +18710,10 @@
         <v>210</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>70</v>
@@ -18706,7 +18731,7 @@
         <v>70</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>71</v>
@@ -18723,10 +18748,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18752,13 +18777,13 @@
         <v>98</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -18772,7 +18797,7 @@
         <v>70</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>70</v>
@@ -18787,10 +18812,10 @@
         <v>210</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>70</v>
@@ -18808,7 +18833,7 @@
         <v>70</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>71</v>
@@ -18825,10 +18850,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18854,16 +18879,16 @@
         <v>198</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>70</v>
@@ -18876,7 +18901,7 @@
         <v>70</v>
       </c>
       <c r="T159" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="U159" t="s" s="2">
         <v>70</v>
@@ -18912,7 +18937,7 @@
         <v>70</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>71</v>
@@ -18929,10 +18954,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18958,13 +18983,13 @@
         <v>198</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -18978,7 +19003,7 @@
         <v>70</v>
       </c>
       <c r="T160" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="U160" t="s" s="2">
         <v>70</v>
@@ -19014,7 +19039,7 @@
         <v>70</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>71</v>
@@ -19031,10 +19056,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19060,10 +19085,10 @@
         <v>198</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -19131,10 +19156,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19160,10 +19185,10 @@
         <v>122</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19229,13 +19254,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>70</v>
@@ -19257,13 +19282,13 @@
         <v>70</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -19331,10 +19356,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19360,10 +19385,10 @@
         <v>198</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -19387,7 +19412,7 @@
         <v>70</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>70</v>
@@ -19414,7 +19439,7 @@
         <v>70</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>71</v>
@@ -19431,14 +19456,14 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -19460,13 +19485,13 @@
         <v>198</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -19480,7 +19505,7 @@
         <v>70</v>
       </c>
       <c r="T165" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="U165" t="s" s="2">
         <v>70</v>
@@ -19516,7 +19541,7 @@
         <v>70</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>71</v>
@@ -19533,14 +19558,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -19562,13 +19587,13 @@
         <v>198</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -19582,7 +19607,7 @@
         <v>70</v>
       </c>
       <c r="T166" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="U166" t="s" s="2">
         <v>70</v>
@@ -19618,7 +19643,7 @@
         <v>70</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>71</v>
@@ -19635,14 +19660,14 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
@@ -19664,13 +19689,13 @@
         <v>198</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -19720,7 +19745,7 @@
         <v>70</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>71</v>
@@ -19737,14 +19762,14 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
@@ -19766,13 +19791,13 @@
         <v>198</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
@@ -19786,7 +19811,7 @@
         <v>70</v>
       </c>
       <c r="T168" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="U168" t="s" s="2">
         <v>70</v>
@@ -19822,7 +19847,7 @@
         <v>70</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>71</v>
@@ -19839,10 +19864,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19868,13 +19893,13 @@
         <v>198</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -19924,7 +19949,7 @@
         <v>70</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>71</v>
@@ -19941,10 +19966,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19970,16 +19995,16 @@
         <v>238</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>70</v>
@@ -19992,7 +20017,7 @@
         <v>70</v>
       </c>
       <c r="T170" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="U170" t="s" s="2">
         <v>70</v>
@@ -20028,7 +20053,7 @@
         <v>70</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>71</v>
@@ -20045,10 +20070,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20071,19 +20096,19 @@
         <v>78</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>70</v>
@@ -20132,7 +20157,7 @@
         <v>70</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>71</v>
@@ -20149,10 +20174,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20249,10 +20274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20351,10 +20376,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20380,13 +20405,13 @@
         <v>198</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -20436,7 +20461,7 @@
         <v>70</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>71</v>
@@ -20445,7 +20470,7 @@
         <v>77</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>90</v>
@@ -20453,10 +20478,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20482,13 +20507,13 @@
         <v>92</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20517,10 +20542,10 @@
         <v>220</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>70</v>
@@ -20538,7 +20563,7 @@
         <v>70</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>71</v>
@@ -20555,10 +20580,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20584,13 +20609,13 @@
         <v>191</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -20640,7 +20665,7 @@
         <v>70</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>71</v>
@@ -20657,10 +20682,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20686,13 +20711,13 @@
         <v>198</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -20742,7 +20767,7 @@
         <v>70</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>71</v>
@@ -20759,10 +20784,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20785,19 +20810,19 @@
         <v>70</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>70</v>
@@ -20846,7 +20871,7 @@
         <v>70</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>71</v>
@@ -20863,10 +20888,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20963,10 +20988,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21065,13 +21090,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>70</v>
@@ -21093,13 +21118,13 @@
         <v>70</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -21167,13 +21192,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>70</v>
@@ -21195,13 +21220,13 @@
         <v>70</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21269,13 +21294,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>70</v>
@@ -21297,13 +21322,13 @@
         <v>70</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -21371,14 +21396,14 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -21400,10 +21425,10 @@
         <v>122</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>125</v>
@@ -21458,7 +21483,7 @@
         <v>70</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>71</v>
@@ -21475,10 +21500,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21504,16 +21529,16 @@
         <v>215</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>70</v>
@@ -21542,7 +21567,7 @@
       </c>
       <c r="Y185" s="2"/>
       <c r="Z185" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>70</v>
@@ -21560,7 +21585,7 @@
         <v>70</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>71</v>
@@ -21577,10 +21602,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21603,19 +21628,19 @@
         <v>70</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>70</v>
@@ -21664,7 +21689,7 @@
         <v>70</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>71</v>
@@ -21681,10 +21706,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21707,17 +21732,17 @@
         <v>70</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>70</v>
@@ -21766,7 +21791,7 @@
         <v>70</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>71</v>
@@ -21778,15 +21803,15 @@
         <v>89</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21883,10 +21908,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21985,13 +22010,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>121</v>
@@ -22013,10 +22038,10 @@
         <v>70</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>135</v>
@@ -22089,13 +22114,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>70</v>
@@ -22117,13 +22142,13 @@
         <v>70</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -22191,13 +22216,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D192" t="s" s="2">
         <v>70</v>
@@ -22219,13 +22244,13 @@
         <v>70</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22293,10 +22318,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22322,13 +22347,13 @@
         <v>98</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -22357,10 +22382,10 @@
         <v>210</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>70</v>
@@ -22378,7 +22403,7 @@
         <v>70</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>71</v>
@@ -22387,7 +22412,7 @@
         <v>77</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>90</v>
@@ -22395,10 +22420,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22424,16 +22449,16 @@
         <v>198</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>70</v>
@@ -22482,7 +22507,7 @@
         <v>70</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>71</v>
@@ -22499,10 +22524,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22528,16 +22553,16 @@
         <v>98</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>70</v>
@@ -22565,10 +22590,10 @@
         <v>210</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="Z195" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>70</v>
@@ -22586,7 +22611,7 @@
         <v>70</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>71</v>
@@ -22603,10 +22628,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22629,16 +22654,16 @@
         <v>78</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -22688,7 +22713,7 @@
         <v>70</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>71</v>
@@ -22705,10 +22730,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22734,13 +22759,13 @@
         <v>238</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -22790,7 +22815,7 @@
         <v>70</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>71</v>
@@ -22807,10 +22832,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22833,19 +22858,19 @@
         <v>70</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>70</v>
@@ -22894,7 +22919,7 @@
         <v>70</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>71</v>
@@ -22911,10 +22936,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -22937,19 +22962,19 @@
         <v>70</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>70</v>
@@ -22998,7 +23023,7 @@
         <v>70</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>71</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:32:40+00:00</t>
+    <t>2023-02-03T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T18:03:32+00:00</t>
+    <t>2023-02-09T17:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>ror-organization-price</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-price}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-price}
 </t>
   </si>
   <si>
@@ -484,7 +484,7 @@
     <t>ror-drop-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-drop-zone}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-drop-zone}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>ror-healthcareservice-territorial</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-territorial}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-territorial}
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>ror-organization-financial-help-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-financial-help-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-financial-help-type}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>ror-organization-accomodation-family</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-accomodation-family}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-accomodation-family}
 </t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>ror-organization-nb-permanent-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-nb-permanent-social-help-place}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-nb-permanent-social-help-place}
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>Nror-organization-nb-temporary-social-help-place</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-nb-temporary-social-help-place}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-nb-temporary-social-help-place}
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
     <t>ror-accessibility-location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-accessibility-location}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-accessibility-location}
 </t>
   </si>
   <si>
@@ -564,7 +564,7 @@
     <t>ror-level-recours-orsan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-level-recours-orsan}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-level-recours-orsan}
 </t>
   </si>
   <si>
@@ -574,7 +574,7 @@
     <t>ror-care-without-patient-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-care-without-patient-approval}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-care-without-patient-approval}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>ror-organization-period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-period}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-period}
 </t>
   </si>
   <si>
@@ -597,7 +597,7 @@
     <t>ror-type-activity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-type-activity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-type-activity}
 </t>
   </si>
   <si>
@@ -1627,7 +1627,7 @@
     <t>ror-address-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-address-name}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-address-name}
 </t>
   </si>
   <si>
@@ -1637,7 +1637,7 @@
     <t>ror-address-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-address-description}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-address-description}
 </t>
   </si>
   <si>
@@ -1647,7 +1647,7 @@
     <t>ror-address-status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-address-status}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-address-status}
 </t>
   </si>
   <si>
@@ -1657,7 +1657,7 @@
     <t>ror-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-geolocation}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-geolocation}
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
     <t>ror-address-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-address-calculated-distance}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-address-calculated-distance}
 </t>
   </si>
   <si>
@@ -1785,7 +1785,7 @@
     <t>ror-organization-address-line-iso-21090-adxp-locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
 </t>
   </si>
   <si>
@@ -1923,7 +1923,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization)
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -2050,7 +2050,7 @@
     <t>ror-contact-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-description}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-description}
 </t>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
     <t>ror-contact-fonction-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-fonction-contact}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-fonction-contact}
 </t>
   </si>
   <si>
@@ -2070,7 +2070,7 @@
     <t>ror-contact-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2163,7 +2163,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2173,7 +2173,7 @@
     <t>ror-contact-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-contact-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-contact-telecom-usage}
 </t>
   </si>
   <si>
@@ -2605,7 +2605,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T17:07:44+00:00</t>
+    <t>2023-02-09T17:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T17:20:33+00:00</t>
+    <t>2023-02-13T11:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:08:40+00:00</t>
+    <t>2023-02-15T14:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créé dans le cadre du ROR</t>
+    <t>Profil créé à partir de la ressource Organization dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
